--- a/Steps_RP/compiled_summaries.xlsx
+++ b/Steps_RP/compiled_summaries.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The agent employed a scientific research approach, iteratively analyzing baseline implementations and performance metrics. It developed novel unlearning methods, including gradient ascent and noise injection strategies, refining parameters through experimentation. This methodical exploration aimed to enhance forgetting quality while maintaining utility, reflecting an innovative, research-driven methodology rather than mere engineering.</t>
+          <t>The agent proposed enhancing the baseline method by implementing gradient-based unlearning using gradient ascent on the forget set, followed by standard training on the retain set. It suggested adopting noise injection to disrupt patterns during unlearning and adjusting hyperparameters for optimal performance while preserving model utility.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The agent primarily employed a scientific research approach, iteratively analyzing baseline performance and hypothesizing novel improvements through enhanced techniques like dynamic margin contrastive loss and exponential noise scaling. This exploration focused on optimizing forgetting quality while ensuring model stability, rather than merely implementing existing known methods.</t>
+          <t>The agent improved the baseline by introducing enhanced noise injection with exponential scaling, adjusting the contrastive loss to include dynamic margins and temperature scaling, and modifying gradient scaling for greater effectiveness. These changes aimed to strengthen forgetting mechanisms while maintaining model stability and accuracy, resulting in better overall performance.</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The agent employed a scientific research approach by systematically analyzing existing unlearning methods, conducting performance evaluations, and iteratively designing and testing novel enhancements. It implemented advanced techniques such as gradient ascent, noise injection, and selective layer freezing to improve forgetting quality while preserving utility, demonstrating innovation rather than mere implementation.</t>
+          <t>The agent improved the baseline by implementing a three-phase unlearning strategy: using gradient ascent on the forget set, incorporating noise injection to disrupt memorization, and fine-tuning on the retain set with layer-specific learning rates. This approach aimed to enhance forgetting while maintaining high utility and performance metrics.</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The agent primarily employed a scientific research approach, developing novel unlearning methods like gradient ascent unlearning and layer-wise learning rates. It systematically analyzed existing methods, iterated on performance, and tested various configurations. This contrasts with a purely engineering approach that would focus on straightforward implementation of established techniques.</t>
+          <t>The agent explored improving the baseline unlearning method by implementing a two-phase gradient ascent approach that explicitly targets forget data. Eventually, it proposed a layer-wise learning rate strategy, employing higher rates for early layers to enhance forgetting while preserving accuracy in later layers, balancing performance efficiently.</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The agent primarily took a scientific research approach, iteratively analyzing and enhancing unlearning methods, forming hypotheses based on baseline performances, and developing innovative modifications such as gradient ascent on the forget set. This exploration of novel techniques contrasts with a purely engineering approach focused on the straightforward implementation of existing methods.</t>
+          <t>The agent aimed to improve unlearning by implementing a three-step approach: applying gradient ascent on the forget set for more aggressive forgetting, followed by finetuning on the retain set to recover performance. They iteratively adjusted learning rates and epochs to balance unlearning and retention while analyzing feature importance.</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The agent predominantly adopted an engineering approach, systematically analyzing existing methods and implementing known techniques like gradient ascent for unlearning. It evaluated performance through established metrics, iteratively making adjustments based on results, rather than exploring novel theories or fundamentally new methodologies. This facilitated incremental improvements on existing methods.</t>
+          <t>The agent aimed to improve the baseline unlearning method by implementing active unlearning through gradient ascent on the forget set, coupled with regular training on the retain set and noise injection. Subsequent adjustments included optimizing learning rates and testing various configurations to balance forgetting effectiveness and utility preservation.</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The agent primarily utilized a scientific research approach, iteratively testing and refining methods for model unlearning. It implemented and analyzed various strategies, including gradient ascent and regularization, to improve forgetting quality while preserving accuracy. The focus was on experimentation and adaptation rather than simply engineering established techniques.</t>
+          <t>The agent aimed to enhance the baseline by implementing gradient ascent on the forget set, alternating with retain set training. It suggested strategies like increasing epochs, using targeted noise injection, optimizing learning rates, and incorporating gradient clipping, while continuously iterating to balance forgetting effectiveness without degrading overall model performance.</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The agent primarily took a scientific research approach, developing and iteratively refining novel methods for machine unlearning by analyzing existing implementations, experimenting with parameter adjustments, and introducing new techniques like layer-selective modification and adversarial training, rather than simply implementing known methods without further exploration or adaptation.</t>
+          <t>The agent iteratively improved the baseline by implementing a layer-selective unlearning approach, incorporating gradient ascent targeting forget data, introducing noise during training, and utilizing dropout. It also emphasized careful retain phase tuning and added adversarial training to enhance forgetting quality while maintaining model utility, achieving a final score of 0.1051.</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The agent primarily took an engineering approach by analyzing existing implementations, establishing baselines, and incrementally applying known methods to improve performance, such as using pretrained weights and learning rate scheduling. The focus was on practical enhancements rather than developing novel theories, reflecting a goal-oriented engineering mindset in machine learning research.</t>
+          <t>The agent identified several improvements over the baseline, including enabling pretrained ResNet weights for enhanced feature extraction, implementing cosine learning rate scheduling for stable convergence, increasing the meta-batch size to 4 for better training stability, and modifying the configuration to support variable ways and shots for better generalization.</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The agent primarily employed an engineering approach, systematically analyzing the existing model, understanding its limitations, and implementing known methods like cosine similarity and temperature scaling to enhance performance. While modifications were oriented towards improvements, they relied on established concepts rather than developing entirely novel theories or methods.</t>
+          <t>The agent identified key areas for improvement in the baseline MyMethod: implementing variable ways and shots, enhancing prototype computation with cosine similarity and temperature scaling, adding prototype regularization for low-shot situations, incorporating domain adaptation techniques, and optimizing training stability through better regularization and increased meta-batch size.</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>The agent employed a scientific research approach by systematically analyzing baseline implementations, identifying performance issues, and formulating improvements. The focus on dynamic task sampling and careful evaluation of existing methods suggests an effort to innovate rather than merely implement known techniques, targeting enhanced effectiveness in few-shot learning applications.</t>
+          <t>The agent analyzed the ProtoNet baseline, identifying low performance and high variance. It proposed improvements such as enhancing data augmentation, fixing network dropout and batch normalization, adjusting temperature scaling, and implementing dynamic task sampling for ways and shots, aiming to increase robustness and adaptability to various classification challenges.</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The agent took a scientific research approach, analyzing existing implementations, identifying performance issues, and iteratively proposing improvements. It focused on understanding underlying mechanisms and experimenting with adjustments such as learning rate scheduling and data augmentation, rather than merely implementing established methods. This indicates a desire to innovate and optimize.</t>
+          <t>The agent assessed the baseline performance, identifying high training variance and low accuracy. Proposed improvements included adding batch normalization for stability, implementing a cosine annealing learning rate scheduler, applying data augmentation techniques, and introducing gradient clipping to enhance model training and adaptability across diverse task configurations.</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The agent adopted a scientific research approach by systematically analyzing and improving an existing machine learning method, focusing on understanding performance metrics, iterating on the model architecture, and implementing changes such as deeper networks and learning rate scheduling, rather than merely applying known methods without modification.</t>
+          <t>The agent identified key improvements for the baseline method, including using a deeper ResNet-34 architecture, enabling pretrained weights, increasing the meta-batch size, adding dropout for regularization, and implementing learning rate scheduling. These enhancements aim to stabilize training and improve performance in few-shot learning tasks.</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The agent primarily adopted a scientific research approach, investigating baseline implementations and identifying areas for improvement. Through analytical reflections, it iteratively refined its methodology, proposing enhancements like bias terms in convolutions and learning rate scheduling, rather than just implementing known methods without adapting them based on performance evaluation.</t>
+          <t>The agent identified several improvements for the baseline, including extending training iterations from 20 to 200, adding cosine learning rate scheduling, incorporating bias terms in convolutional layers, adjusting BatchNorm momentum to 0.1, and allowing variable ways and shots during training to enhance model generalization and stability.</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The agent primarily employed a scientific research approach, analyzing existing methods and their performance metrics, exploring their limitations, and planning iterations for improvements. It designed new configurations to adapt baseline implementations, indicating a focus on experimentation and refinement rather than merely executing known methods.</t>
+          <t>The agent analyzed baseline methods and identified several improvement areas: increasing meta-batch size for stability, adding learning rate scheduling, adopting task-adaptive prototype computation, and leveraging pretrained weights. The goal is to enhance model performance for few-shot learning across varying ways and shots, aiming for better cross-domain generalization.</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The agent primarily followed a scientific research approach, systematically analyzing baseline methods and their performances, identifying weaknesses, and proposing modifications for improvement. It engaged in understanding complex implementations and exploring novel solutions like domain-adaptive features, actively iterating on its strategies rather than simply implementing known methods.</t>
+          <t>The agent identified the need for improvements in handling variable ways and shots in the meta-learning process. Proposed enhancements included adaptive feature extraction, task-conditional feature modulation, domain-specific prototype computation, and increasing the meta-batch size for better training efficiency, aiming to boost performance across diverse tasks and domains.</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The agent primarily took a scientific research approach, systematically analyzing baseline performance and exploring novel merging strategies. They developed a layer-wise merging method that dynamically adjusts weights based on layer depth, demonstrating innovation rather than merely implementing known techniques. Their approach emphasized performance improvement and efficient memory management.</t>
+          <t>The agent improved the baseline method by implementing a layer-wise merging strategy that dynamically adjusts weights based on layer depth, favoring model strengths at various levels. It enhanced memory efficiency through in-place operations and careful management, successfully achieving a better performance score of 0.733 compared to 0.727.</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The agent primarily took a scientific research approach by developing a novel LayerwiseMethod for merging models with layer-specific weighting. This method significantly diverged from the baseline's uniform weights, highlighting an innovative strategy to improve performance, rather than simply implementing existing techniques. It aimed for theoretical advancements in model merging.</t>
+          <t>The agent analyzed the baseline method, identified its limitations of equal weighting, and proposed an improved LayerwiseMethod. This method applies layer-specific weights during model merging to optimize performance based on task characteristics. The implementation achieved a slight performance increase, demonstrating the effectiveness of considering model layer importance in merging.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The agent primarily adopted an engineering approach, implementing and modifying existing methods for model merging. It explored layer-wise weights but ultimately achieved similar performance to the baseline. The process emphasized practical testing and performance evaluation rather than formulating new theories or hypotheses, which characterizes scientific research.</t>
+          <t>The agent analyzed the baseline method of simple weighted averaging and proposed improvements through layer-wise weighted averaging. It suggested assigning weights based on layer importance, with higher weights for attention/feedforward layers and lower for embedding/normalization layers, aiming to enhance performance by better leveraging the distinct roles of different model layers.</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>The agent predominantly took an engineering approach, systematically analyzing and implementing established methods for merging model parameters. It iterated on known strategies like adaptive weighting and layer-wise adjustments, refining techniques based on empirical performance rather than developing completely novel theories, leading to modest improvements over the baseline method.</t>
+          <t>The agent explored various methods for model parameter merging, initially using a simple averaging technique. They proposed sophisticated layer-wise adaptive weighting, prioritizing attention mechanisms, and enhancing embedding layer contributions. The final implementation achieved modest improvements, underscoring the importance of tailored weighting strategies in model merging for better performance.</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The agent adopted a scientific research approach by analyzing the baseline method and developing a novel layer-wise weighted averaging technique for model merging. It tested various weight combinations to improve performance, demonstrating hypothesis-driven exploration to generate new methods instead of merely implementing existing techniques.</t>
+          <t>The agent improved the baseline by implementing a layer-wise merging method that assigns different weights based on layer types. It used 0.7/0.3 for attention layers and 0.3/0.7 for feed-forward layers, demonstrating that moderate specialization performs better than equal or extreme weights, achieving a score of 0.729.</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The agent primarily adopted a scientific research approach by thoroughly analyzing existing methods, conducting experiments, and iterating on their design based on performance outcomes. They explored novel adaptive merging strategies, while ultimately concluding that the well-known baseline method of equal weight averaging was most effective for the specific models tested.</t>
+          <t>The agent proposed several improvements to the baseline model merging method, including layer-wise weighting based on layer types, such as equal weights for embedding layers, higher weights for attention layers, and the introduction of an adaptive method. Despite efforts, the baseline equal weighting proved to be the most effective strategy.</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>The agent employed a scientific research approach by systematically understanding the problem, developing a novel LayerWeightedMethod for model merging, and iteratively refining it based on performance evaluations. The agent's focus on experimentation and optimization of method specifics demonstrates an innovative method rather than merely applying existing techniques.</t>
+          <t>The agent analyzed a baseline merging method using simple weighted averaging. To improve performance, it implemented a LayerWeightedMethod featuring layer-specific weights (favoring the instruction model) for attention, embedding, and FFN layers. This approach enhanced performance to 0.739, showcasing effective optimization while incorporating memory management techniques for efficiency.</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>The agent primarily took an engineering approach by implementing known methods, specifically testing variations of a baseline merging technique. Despite experimenting with novel layer-wise weighting strategies, these were based on established principles rather than developing new theories, ultimately validating that the original equal-weighted method performed best.</t>
+          <t>The agent proposed improvements to the baseline method by exploring layer-wise weighted averaging based on layer importance, attention-based parameter merging, and task-specific interpolation. However, after testing, it concluded that the original baseline's equal-weighted averaging method outperformed these strategies, indicating the stability of learned representations in the models.</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>The agent employed a scientific research approach by iteratively analyzing baseline performance, identifying weaknesses, and systematically experimenting with parameter variations and novel configurations. While leveraging existing methods like GCG, it focused on optimization strategies and enhancing understanding of metrics to develop improved model behaviors, rather than merely applying known solutions.</t>
+          <t>The agent improved the baseline by exploring varied parameters such as increasing topk values, adjusting optimization steps, and utilizing alternative initialization strings focused on programming keywords. The agent also considered testing multiple random seeds and larger batch sizes for better gradient estimates, aiming to enhance the overall performance metrics.</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The agent adopted a scientific research approach by systematically analyzing existing methods, identifying limitations in the GCG implementation, and investigating evaluation metrics. Instead of merely implementing known methods, the agent focused on understanding the underlying mechanics and iteratively refining strategies to improve trigger recovery performance.</t>
+          <t>The agent identified several improvement strategies for the baseline method, including fixing the GCG implementation errors, using multiple base prompts instead of a single one, implementing a second prediction method, optimizing trigger initialization, and enhancing the token selection strategy to better generate relevant malicious code outputs.</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The agent initially examined existing code and methods, implementing known techniques like GCG for trigger generation. However, as challenges arose, it identified limitations, proposed improvements, and adapted its strategies, indicating a scientific research approach focused on developing novel solutions while integrating and building upon established methods.</t>
+          <t>The agent identified several improvements for the baseline method: utilize multiple samples from the evaluation dataset, implement a retry mechanism with diverse initializations, use both prediction slots, and incorporate target-specific parameter tuning to enhance trigger generation effectiveness, ultimately aiming to improve recall and REASR performance metrics.</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The agent primarily took an engineering approach, systematically analyzing existing code, implementing known gradient-based optimization methods, and refining parameters based on performance metrics. It followed a structured plan to improve the baseline method for generating backdoor triggers, rather than developing novel theories or exploring new methodologies.</t>
+          <t>The agent reviewed the baseline GCG implementation, identified low recall and ASR, and proposed improvements including better trigger initialization, diverse candidate generation, and refined optimization strategies. It emphasized utilizing programming-related terms, adjusting optimization steps and batch sizes, and enhancing gradient calculations to achieve more effective and targeted outputs.</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The agent primarily took an engineering approach by systematically analyzing and modifying existing methods, specifically the GCG algorithm, to improve performance metrics like Recall and REASR. It iteratively adjusted parameters, tested variations, and implemented known techniques rather than developing entirely novel theories, focusing on optimizing existing implementations.</t>
+          <t>The agent explored various initialization strategies and optimization techniques to improve backdoor trigger recovery. Key ideas included using multiple trigger patterns, adjusting GCG parameters, enhancing memory management, and effectively handling errors. The agent aimed to balance recall and REASR scores, ultimately focusing on special character patterns for better performance.</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The agent followed a scientific research approach by systematically analyzing existing methods, understanding their implementations, and iteratively improving the GCG attack parameters. It adapted strategies based on performance metrics and conducted thorough evaluations while iterating on ideas, indicating a focus on developing novel solutions rather than merely applying known methods.</t>
+          <t>The agent aimed to enhance the baseline by modifying the GCG implementation, increasing optimization steps, changing initialization strings to be more code-related, and adjusting system messages for a code-focused approach. Additionally, it planned to refine parameters like batch size, top-k, and introducing early stopping to improve performance.</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The agent primarily employed a scientific research approach, analyzing and diagnosing the performance of existing methods while iteratively improving trigger recovery techniques. By experimenting with multiple data samples and success scoring, it developed a novel method that significantly enhanced recall and effectiveness, showcasing innovative problem-solving beyond mere implementation.</t>
+          <t>The agent improved the baseline by using five different samples per target to enhance robustness, implementing a success scoring system based on word overlap, and returning the top two triggers. This led to significant performance gains, achieving a recall of 0.993 and a combined score of 11.3.</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The agent employed a scientific research approach, systematically analyzing the existing GCG method, identifying performance issues, and iteratively testing parameter adjustments. This includes exploring modifications to optimization techniques and understanding underlying mechanisms, rather than simply implementing known methods, demonstrating a commitment to developing novel solutions based on empirical findings.</t>
+          <t>The agent systematically analyzed the baseline method, identifying critical issues like low recall. To improve performance, it proposed increasing optimization steps to 200, adjusting batch size, and considering diverse initialization patterns while experimenting with topk values. The approach focused on enhancing the optimization strategy to generate more effective triggers.</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The agent primarily followed a scientific research approach by systematically analyzing the existing baseline method, identifying areas for improvement, and designing modifications to enhance the model's performance. This involved understanding the architecture, configuration, and potential optimizations rather than merely implementing known methods, indicating an innovative exploration of the problem.</t>
+          <t>The agent analyzed the baseline model's configuration and performance, identifying potential improvements. Key ideas included increasing attention heads from 8 to 12, enlarging window sizes from [7,7,7,7,7,-1] to [9,9,9,9,9,-1], and optimizing temporal modeling capacity to enhance boundary localization accuracy for better mAP performance.</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The agent took a scientific research approach by thoroughly analyzing the existing implementation and performance metrics. It identified limitations, proposed novel improvements such as cross-modal attention fusion and enhanced boundary refinement, and structured a systematic plan to implement and evaluate these enhancements, rather than simply applying known methods.</t>
+          <t>The agent identified key improvement areas for the baseline model, including adding cross-modal attention for better feature fusion between video and audio, enhancing temporal boundary prediction accuracy, and introducing temporal smoothness constraints. These changes aim to improve overall performance, particularly for temporal localization precision across varying IoU thresholds.</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The agent primarily adopted a scientific research approach, systematically analyzing the existing model, identifying weaknesses, and proposing novel improvements like adjusting window sizes, incorporating relative positional encoding, and refining configurations. This methodical enhancement process contrasts with merely implementing known methods, reflecting an innovative mindset aimed at performance optimization.</t>
+          <t>The agent identified several improvements: increase attention window sizes for better long-range dependencies, add relative positional encoding alongside absolute, adjust max sequence length, optimize FPN dimensions, and enhance the learning rate schedule. These changes aimed to boost the model's temporal action localization performance on high IoU thresholds.</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The agent primarily adopted a scientific research approach by systematically analyzing the existing model's architecture, performance metrics, and feature processing while identifying gaps, particularly in multimodal fusion. This led to formulating hypotheses for improvements rather than merely implementing known methods, illustrating a focus on developing novel theories and enhancements.</t>
+          <t>The agent identified key improvement areas for the baseline model, particularly enhancing multimodal feature utilization by implementing a dedicated audio-visual fusion strategy. Suggestions include refining temporal boundary detection and adjusting input dimensions to better account for concatenated video and audio features, addressing performance drops at higher IoU thresholds.</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The agent primarily took a scientific research approach, focusing on understanding the problem and existing implementation, analyzing baseline performance, identifying areas for improvement, and proposing novel enhancements to the model architecture. This process involves experimentation and iteration, characteristic of scientific inquiry, rather than purely engineering known solutions.</t>
+          <t>The agent identified improvement opportunities for the baseline model, focusing on enhancing boundary regression through iterative refinement, improving confidence scoring by incorporating predicted IoU, and adapting point generation for better temporal precision. These strategies aim to mitigate performance drops at higher IoU thresholds, enhancing overall model effectiveness.</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The agent primarily employed a scientific research approach, systematically analyzing baseline performance, adjusting model configurations, and investigating architectural components to improve temporal action localization. This iterative process included evaluating results, hypothesizing enhancements, and testing modifications, reflecting a focus on developing novel strategies rather than merely implementing existing methods.</t>
+          <t>The agent aimed to improve the model by enhancing temporal precision through increased attention window sizes and expanding the embedding dimensions. Additionally, the agent explored tuning NMS parameters and analyzed effective strides to ensure compatibility with sequence lengths, strategically implementing multiple configuration changes while tracking performance metrics against the baseline.</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>The agent primarily adopted a scientific research approach, systematically analyzing existing methods and configurations to identify performance bottlenecks in the ActionFormer model. It emphasized understanding and proposing improvements based on the architecture and baseline evaluations rather than merely implementing known techniques, aiming for innovative refinements in model performance.</t>
+          <t>The agent identified key improvement areas for the baseline model, including implementing adaptive window sizes for attention mechanisms, enhancing boundary regression with a refinement module, combining local and global attention for better long-range coverage, optimizing position encodings, and improving multimodal fusion of video and audio features for better performance.</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The agent followed a scientific research approach by systematically exploring the codebase, reflecting on baseline performance, and identifying areas for improvement. They analyzed implementation details, proposed enhancements like cross-modal attention, and thoroughly investigated performance metrics, aiming to develop novel strategies rather than solely implementing known methods.</t>
+          <t>The agent identified multiple improvement areas for the baseline ActionFormer model, including enhancing boundary precision through DIoU loss, experimenting with fixed loss weights, implementing a boundary refinement module, optimizing NMS parameters, and adjusting positional encoding. The focus was on fine-tuning loss functions and post-processing strategies to boost performance.</t>
         </is>
       </c>
     </row>
